--- a/biology/Médecine/Maladie_de_Scheie/Maladie_de_Scheie.xlsx
+++ b/biology/Médecine/Maladie_de_Scheie/Maladie_de_Scheie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie de Scheie une maladie de surcharge lysosomale héréditaire et évolutive due à un déficit de l'enzyme alpha-L-iduronidase.
 C'est une forme atténuée de la mucopolysaccharidose de type 1. La transmission se fait sur le mode récessif autosomique. Un traitement enzymatique de substitution existe depuis 2003 pour freiner l'évolution de la maladie.
@@ -513,7 +525,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Page spécifique sur Orphanet
  Portail de la médecine                     </t>
